--- a/Main/Archivos/Archivos_Stock/reporte_stock.xlsx
+++ b/Main/Archivos/Archivos_Stock/reporte_stock.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,76 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>papas Barcel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>barcel</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>manga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>panini</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>figuras</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sega</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>

--- a/Main/Archivos/Archivos_Stock/reporte_stock.xlsx
+++ b/Main/Archivos/Archivos_Stock/reporte_stock.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
     </row>
